--- a/myapp/app/data.xlsx
+++ b/myapp/app/data.xlsx
@@ -6,15 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId3" sheetId="1"/>
-    <sheet name="boards" r:id="rId4" sheetId="2"/>
     <sheet name="projects" r:id="rId5" sheetId="3"/>
+    <sheet name="users" r:id="rId6" sheetId="6"/>
+    <sheet name="boards" r:id="rId7" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="109">
   <si>
     <t>no</t>
   </si>
@@ -259,61 +259,88 @@
     <t>members</t>
   </si>
   <si>
-    <t>p1xx</t>
-  </si>
-  <si>
-    <t>xxxx</t>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>2024-1-1</t>
   </si>
   <si>
     <t>2024-2-2</t>
   </si>
   <si>
+    <t>1,2,5</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>2024-3-3</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>2024-4-4</t>
+  </si>
+  <si>
+    <t>2,5,12</t>
+  </si>
+  <si>
+    <t>p4x</t>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
     <t>2024-5-5</t>
   </si>
   <si>
-    <t>2,6,9</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>xx</t>
-  </si>
-  <si>
-    <t>2024-3-3</t>
-  </si>
-  <si>
-    <t>5,6</t>
-  </si>
-  <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>2024-1-1</t>
-  </si>
-  <si>
-    <t>2024-4-4</t>
-  </si>
-  <si>
-    <t>2,5,12</t>
-  </si>
-  <si>
-    <t>p4x</t>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>user19</t>
+  </si>
+  <si>
+    <t>user19@test.com</t>
+  </si>
+  <si>
+    <t>010-1111-0019</t>
+  </si>
+  <si>
+    <t>user19xxx</t>
+  </si>
+  <si>
+    <t>user19xxx@test.com</t>
+  </si>
+  <si>
+    <t>010-1111-1119</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>pp</t>
-  </si>
-  <si>
-    <t>ppp</t>
-  </si>
-  <si>
-    <t>12,13,15</t>
+    <t>ggg</t>
+  </si>
+  <si>
+    <t>gggxx</t>
+  </si>
+  <si>
+    <t>2024-07-25 16:56:23</t>
   </si>
 </sst>
 </file>
@@ -356,11 +383,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
@@ -369,16 +396,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>4</v>
+        <v>79</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>80</v>
       </c>
     </row>
     <row r="2">
@@ -386,16 +416,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>9</v>
+        <v>84</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -403,186 +436,99 @@
         <v>10</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>13</v>
+        <v>88</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>17</v>
+        <v>91</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>21</v>
+        <v>88</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>25</v>
+        <v>95</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>13</v>
+        <v>84</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +536,258 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -603,16 +800,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>55</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -685,169 +882,36 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="F1" t="s" s="0">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
         <v>63</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
